--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H2">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.87998551349961</v>
+        <v>0.353194</v>
       </c>
       <c r="N2">
-        <v>1.87998551349961</v>
+        <v>1.059582</v>
       </c>
       <c r="O2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q2">
-        <v>4.485779097578646</v>
+        <v>3.216915557848667</v>
       </c>
       <c r="R2">
-        <v>4.485779097578646</v>
+        <v>28.952240020638</v>
       </c>
       <c r="S2">
-        <v>3.850090642457986E-05</v>
+        <v>2.68857138349251E-05</v>
       </c>
       <c r="T2">
-        <v>3.850090642457986E-05</v>
+        <v>2.68857138349251E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H3">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.204035667047674</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N3">
-        <v>0.204035667047674</v>
+        <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q3">
-        <v>0.4868436080122816</v>
+        <v>17.21685961394789</v>
       </c>
       <c r="R3">
-        <v>0.4868436080122816</v>
+        <v>154.951736525531</v>
       </c>
       <c r="S3">
-        <v>4.17852056192499E-06</v>
+        <v>0.000143891734922082</v>
       </c>
       <c r="T3">
-        <v>4.17852056192499E-06</v>
+        <v>0.000143891734922082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H4">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.7992158558983</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N4">
-        <v>17.7992158558983</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q4">
-        <v>42.47019451285551</v>
+        <v>2.051261765885444</v>
       </c>
       <c r="R4">
-        <v>42.47019451285551</v>
+        <v>18.461355892969</v>
       </c>
       <c r="S4">
-        <v>0.0003645166088664017</v>
+        <v>1.714363832260517E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003645166088664017</v>
+        <v>1.714363832260517E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5768.50180271428</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H5">
-        <v>5768.50180271428</v>
+        <v>27.324209</v>
       </c>
       <c r="I5">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J5">
-        <v>0.9844262684733377</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.87998551349961</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N5">
-        <v>1.87998551349961</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q5">
-        <v>10844.69982369923</v>
+        <v>162.9824429915599</v>
       </c>
       <c r="R5">
-        <v>10844.69982369923</v>
+        <v>1466.841986924039</v>
       </c>
       <c r="S5">
-        <v>0.09307876380722327</v>
+        <v>0.001362143097507507</v>
       </c>
       <c r="T5">
-        <v>0.09307876380722327</v>
+        <v>0.001362143097507507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.204035667047674</v>
+        <v>0.353194</v>
       </c>
       <c r="N6">
-        <v>0.204035667047674</v>
+        <v>1.059582</v>
       </c>
       <c r="O6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q6">
-        <v>1176.980113182518</v>
+        <v>2038.591101438521</v>
       </c>
       <c r="R6">
-        <v>1176.980113182518</v>
+        <v>18347.31991294669</v>
       </c>
       <c r="S6">
-        <v>0.01010187978843893</v>
+        <v>0.01703774189719631</v>
       </c>
       <c r="T6">
-        <v>0.01010187978843893</v>
+        <v>0.01703774189719631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7992158558983</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N7">
-        <v>17.7992158558983</v>
+        <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q7">
-        <v>102674.8087516499</v>
+        <v>10910.49366156895</v>
       </c>
       <c r="R7">
-        <v>102674.8087516499</v>
+        <v>98194.44295412056</v>
       </c>
       <c r="S7">
-        <v>0.8812456248776754</v>
+        <v>0.09118561090825697</v>
       </c>
       <c r="T7">
-        <v>0.8812456248776754</v>
+        <v>0.09118561090825698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.990989414691807</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
-        <v>0.990989414691807</v>
+        <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J8">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.87998551349961</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N8">
-        <v>1.87998551349961</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O8">
-        <v>0.09455128005835434</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P8">
-        <v>0.09455128005835434</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q8">
-        <v>1.863045743652055</v>
+        <v>1299.904802428716</v>
       </c>
       <c r="R8">
-        <v>1.863045743652055</v>
+        <v>11699.14322185845</v>
       </c>
       <c r="S8">
-        <v>1.599029918343009E-05</v>
+        <v>0.01086409260742784</v>
       </c>
       <c r="T8">
-        <v>1.599029918343009E-05</v>
+        <v>0.01086409260742784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.990989414691807</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
-        <v>0.990989414691807</v>
+        <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J9">
-        <v>0.000169117744080898</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.204035667047674</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N9">
-        <v>0.204035667047674</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O9">
-        <v>0.01026169263453836</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P9">
-        <v>0.01026169263453836</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q9">
-        <v>0.2021971862638269</v>
+        <v>103283.5808085378</v>
       </c>
       <c r="R9">
-        <v>0.2021971862638269</v>
+        <v>929552.2272768399</v>
       </c>
       <c r="S9">
-        <v>1.735434308804695E-06</v>
+        <v>0.8632035089294501</v>
       </c>
       <c r="T9">
-        <v>1.735434308804695E-06</v>
+        <v>0.8632035089294501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H10">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>17.7992158558983</v>
+        <v>0.353194</v>
       </c>
       <c r="N10">
-        <v>17.7992158558983</v>
+        <v>1.059582</v>
       </c>
       <c r="O10">
-        <v>0.8951870273071072</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P10">
-        <v>0.8951870273071072</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q10">
-        <v>17.63883450300979</v>
+        <v>0.4492732460886666</v>
       </c>
       <c r="R10">
-        <v>17.63883450300979</v>
+        <v>4.043459214798</v>
       </c>
       <c r="S10">
-        <v>0.0001513920105886633</v>
+        <v>3.754848926188695E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001513920105886633</v>
+        <v>3.754848926188696E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>87.8812706229666</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H11">
-        <v>87.8812706229666</v>
+        <v>3.816089</v>
       </c>
       <c r="I11">
-        <v>0.01499741774672851</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J11">
-        <v>0.01499741774672851</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.87998551349961</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N11">
-        <v>1.87998551349961</v>
+        <v>5.670859</v>
       </c>
       <c r="O11">
-        <v>0.09455128005835434</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P11">
-        <v>0.09455128005835434</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q11">
-        <v>165.215515679116</v>
+        <v>2.404500294494555</v>
       </c>
       <c r="R11">
-        <v>165.215515679116</v>
+        <v>21.640502650451</v>
       </c>
       <c r="S11">
-        <v>0.001418025045523061</v>
+        <v>2.009586688592058E-05</v>
       </c>
       <c r="T11">
-        <v>0.001418025045523061</v>
+        <v>2.009586688592058E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>87.8812706229666</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H12">
-        <v>87.8812706229666</v>
+        <v>3.816089</v>
       </c>
       <c r="I12">
-        <v>0.01499741774672851</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J12">
-        <v>0.01499741774672851</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.204035667047674</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N12">
-        <v>0.204035667047674</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O12">
-        <v>0.01026169263453836</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P12">
-        <v>0.01026169263453836</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q12">
-        <v>17.93091367255415</v>
+        <v>0.2864784653387777</v>
       </c>
       <c r="R12">
-        <v>17.93091367255415</v>
+        <v>2.578306188048999</v>
       </c>
       <c r="S12">
-        <v>0.0001538988912286989</v>
+        <v>2.394274235820405E-06</v>
       </c>
       <c r="T12">
-        <v>0.0001538988912286989</v>
+        <v>2.394274235820405E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>87.8812706229666</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H13">
-        <v>87.8812706229666</v>
+        <v>3.816089</v>
       </c>
       <c r="I13">
-        <v>0.01499741774672851</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J13">
-        <v>0.01499741774672851</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7992158558983</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N13">
-        <v>17.7992158558983</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O13">
-        <v>0.8951870273071072</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P13">
-        <v>0.8951870273071072</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q13">
-        <v>1564.217705508797</v>
+        <v>22.76206816794656</v>
       </c>
       <c r="R13">
-        <v>1564.217705508797</v>
+        <v>204.858613511519</v>
       </c>
       <c r="S13">
-        <v>0.01342549380997675</v>
+        <v>0.000190236405043759</v>
       </c>
       <c r="T13">
-        <v>0.01342549380997675</v>
+        <v>0.000190236405043759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H14">
+        <v>281.031075</v>
+      </c>
+      <c r="I14">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J14">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.353194</v>
+      </c>
+      <c r="N14">
+        <v>1.059582</v>
+      </c>
+      <c r="O14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="P14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="Q14">
+        <v>33.08616316785</v>
+      </c>
+      <c r="R14">
+        <v>297.7754685106501</v>
+      </c>
+      <c r="S14">
+        <v>0.0002765211267843609</v>
+      </c>
+      <c r="T14">
+        <v>0.0002765211267843609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H15">
+        <v>281.031075</v>
+      </c>
+      <c r="I15">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J15">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.670859</v>
+      </c>
+      <c r="O15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="P15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="Q15">
+        <v>177.076400104825</v>
+      </c>
+      <c r="R15">
+        <v>1593.687600943425</v>
+      </c>
+      <c r="S15">
+        <v>0.0014799348427165</v>
+      </c>
+      <c r="T15">
+        <v>0.0014799348427165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H16">
+        <v>281.031075</v>
+      </c>
+      <c r="I16">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J16">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q16">
+        <v>21.097346282675</v>
+      </c>
+      <c r="R16">
+        <v>189.876116544075</v>
+      </c>
+      <c r="S16">
+        <v>0.0001763233148748396</v>
+      </c>
+      <c r="T16">
+        <v>0.0001763233148748396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>93.67702500000001</v>
+      </c>
+      <c r="H17">
+        <v>281.031075</v>
+      </c>
+      <c r="I17">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="J17">
+        <v>0.01594250007799006</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N17">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q17">
+        <v>1676.283882912925</v>
+      </c>
+      <c r="R17">
+        <v>15086.55494621633</v>
+      </c>
+      <c r="S17">
+        <v>0.01400972079361436</v>
+      </c>
+      <c r="T17">
+        <v>0.01400972079361436</v>
       </c>
     </row>
   </sheetData>
